--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_world_full_price_Max.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_world_full_price_Max.xlsx
@@ -1,32 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\OneDrive\Documenti\GitHub\GreenTechs\Results\Sensitivity\EOL-RIR\Price\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434461FB-FF79-4C9B-8E53-7CBC0B412C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neodymium" sheetId="1" r:id="rId1"/>
     <sheet name="Dysprosium" sheetId="2" r:id="rId2"/>
     <sheet name="Copper" sheetId="3" r:id="rId3"/>
     <sheet name="Raw silicon" sheetId="4" r:id="rId4"/>
+    <sheet name="Metals" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>World</t>
   </si>
+  <si>
+    <t>Neodymium</t>
+  </si>
+  <si>
+    <t>Dysprosium</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Raw silicon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -167,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -376,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -397,21 +428,21 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.822810162309225E-11</v>
+        <v>7.8228101623092246E-11</v>
       </c>
       <c r="C2">
-        <v>0.004364916285875294</v>
+        <v>4.3649162858752939E-3</v>
       </c>
       <c r="D2">
-        <v>0.3704754467824329</v>
+        <v>0.37047544678243288</v>
       </c>
       <c r="E2">
-        <v>0.4293981444233609</v>
+        <v>0.42939814442336088</v>
       </c>
     </row>
   </sheetData>
@@ -420,14 +451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -441,21 +474,21 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.864134859359822E-11</v>
+        <v>8.8641348593598217E-11</v>
       </c>
       <c r="C2">
-        <v>0.004945947275345005</v>
+        <v>4.9459472753450046E-3</v>
       </c>
       <c r="D2">
-        <v>0.4197908749190036</v>
+        <v>0.41979087491900358</v>
       </c>
       <c r="E2">
-        <v>0.4865570020944955</v>
+        <v>0.48655700209449548</v>
       </c>
     </row>
   </sheetData>
@@ -464,14 +497,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -485,21 +520,21 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.10480601779562E-05</v>
+        <v>5.1048060177956202E-5</v>
       </c>
       <c r="C2">
-        <v>0.008325007713317178</v>
+        <v>8.3250077133171785E-3</v>
       </c>
       <c r="D2">
-        <v>0.5394466316086591</v>
+        <v>0.53944663160865913</v>
       </c>
       <c r="E2">
-        <v>0.5335595710059211</v>
+        <v>0.53355957100592111</v>
       </c>
     </row>
   </sheetData>
@@ -508,14 +543,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -529,21 +566,118 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.324606211794747E-05</v>
+        <v>9.3246062117947472E-5</v>
       </c>
       <c r="C2">
-        <v>0.005157950357073015</v>
+        <v>5.1579503570730149E-3</v>
       </c>
       <c r="D2">
-        <v>0.6110768469239389</v>
+        <v>0.61107684692393893</v>
       </c>
       <c r="E2">
-        <v>0.617003475916256</v>
+        <v>0.61700347591625604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE77FBD-7C33-4CEB-96A2-40478F372F09}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7.8228101623092246E-11</v>
+      </c>
+      <c r="C2">
+        <v>4.3649162858752939E-3</v>
+      </c>
+      <c r="D2">
+        <v>0.37047544678243288</v>
+      </c>
+      <c r="E2">
+        <v>0.42939814442336088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8.8641348593598217E-11</v>
+      </c>
+      <c r="C3">
+        <v>4.9459472753450046E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.41979087491900358</v>
+      </c>
+      <c r="E3">
+        <v>0.48655700209449548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5.1048060177956202E-5</v>
+      </c>
+      <c r="C4">
+        <v>8.3250077133171785E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.53944663160865913</v>
+      </c>
+      <c r="E4">
+        <v>0.53355957100592111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9.3246062117947472E-5</v>
+      </c>
+      <c r="C5">
+        <v>5.1579503570730149E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.61107684692393893</v>
+      </c>
+      <c r="E5">
+        <v>0.61700347591625604</v>
       </c>
     </row>
   </sheetData>
